--- a/02_MasterWifoMannheim/99_Backup/Course112.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course112.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159964873574FF987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF7CFA6-246B-47BC-8125-45A8C2096D45}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 645 Leadership and Motivation</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course is designed to introduce students to different perspectives on leadership and the role that motivation plays in the leadership process. approaches) and discusses contemporary challenges of leadership in organizations (e.g., culture and leadership, women in leadership positions, ethical leadership). Furthermore, the course gives students the opportunity to experience their own leadership behavior and thereby help to prepare them for leadership roles in organizations.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module students will be able to: … understand different approaches to leading and motivating employees, … analyze different leadership styles and evaluate their advantages and disadvantages, … assess factors of successful leadership, … understand potential problems in the interaction between supervisors and subordinates, … learn about their own leadership style.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.), Assignment</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Torsten Biemann</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, LL.M., M.Sc. Econ.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,134 +420,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 645 Leadership and Motivation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course is designed to introduce students to different perspectives on leadership and the role that motivation plays in the leadership process. approaches) and discusses contemporary challenges of leadership in organizations (e.g., culture and leadership, women in leadership positions, ethical leadership). Furthermore, the course gives students the opportunity to experience their own leadership behavior and thereby help to prepare them for leadership roles in organizations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module students will be able to: … understand different approaches to leading and motivating employees, … analyze different leadership styles and evaluate their advantages and disadvantages, … assess factors of successful leadership, … understand potential problems in the interaction between supervisors and subordinates, … learn about their own leadership style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.), Assignment</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Torsten Biemann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
